--- a/work_with_csv/samle_data_output.xlsx
+++ b/work_with_csv/samle_data_output.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bengalore</t>
+          <t>Bangalore</t>
         </is>
       </c>
     </row>
